--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,41 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\d\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFD6963-8337-48B4-967E-26DC08261A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Test" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Test1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Invoice" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="2" r:id="rId2"/>
+    <sheet name="Test1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>Today sale</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>12/05/21</t>
+  </si>
+  <si>
+    <t>01:18:11</t>
+  </si>
+  <si>
+    <t>samsung s21</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>01:18:43</t>
+  </si>
+  <si>
+    <t>samsung s21+</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,85 +106,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,62 +439,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
+    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>59999</v>
+      </c>
+      <c r="E2">
+        <v>59</v>
+      </c>
+      <c r="F2">
+        <v>3539941</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>65999.539999999994</v>
+      </c>
+      <c r="E3">
+        <v>46</v>
+      </c>
+      <c r="F3">
+        <v>3035978.84</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,98 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\d\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFD6963-8337-48B4-967E-26DC08261A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Invoice" sheetId="1" r:id="rId1"/>
-    <sheet name="Test" sheetId="2" r:id="rId2"/>
-    <sheet name="Test1" sheetId="3" r:id="rId3"/>
+    <sheet name="Invoice" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Test1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Total Price</t>
-  </si>
-  <si>
-    <t>Today sale</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>12/05/21</t>
-  </si>
-  <si>
-    <t>01:18:11</t>
-  </si>
-  <si>
-    <t>samsung s21</t>
-  </si>
-  <si>
-    <t>#3</t>
-  </si>
-  <si>
-    <t>01:18:43</t>
-  </si>
-  <si>
-    <t>samsung s21+</t>
-  </si>
-  <si>
-    <t>#4</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -111,7 +56,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.3999755851924192"/>
       </bottom>
       <diagonal/>
     </border>
@@ -121,25 +66,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,99 +443,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col width="14.33203125" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" min="5" max="5"/>
+    <col width="14.88671875" customWidth="1" min="6" max="6"/>
+    <col width="11.77734375" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Price</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Today sale</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Invoice Number</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>12/05/21</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01:18:11</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>samsung s21</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>59999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3539941</v>
+      </c>
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12/05/21</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01:18:43</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>samsung s21+</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>65999.53999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3035978.84</v>
+      </c>
+      <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12/05/21</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>02:11:53</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>59999</v>
-      </c>
-      <c r="E2">
-        <v>59</v>
-      </c>
-      <c r="F2">
-        <v>3539941</v>
-      </c>
-      <c r="G2">
+      <c r="E4" t="n">
+        <v>56</v>
+      </c>
+      <c r="F4" t="n">
+        <v>168</v>
+      </c>
+      <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>65999.539999999994</v>
-      </c>
-      <c r="E3">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>3035978.84</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -541,24 +615,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
